--- a/nordson.omu/src/test/java/com/nordson/testData/MDS-PressCtrl-05 Mar 2021.xlsx
+++ b/nordson.omu/src/test/java/com/nordson/testData/MDS-PressCtrl-05 Mar 2021.xlsx
@@ -12,6 +12,7 @@
     <sheet name="H5" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ProBlue Flex'!$B$1:$Z$36</definedName>
     <definedName name="Group">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'ProBlue Flex'!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'ProBlue Flex'!#REF!,'ProBlue Flex'!#REF!</definedName>
@@ -1510,14 +1511,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="mmm/yy"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="mmm/yy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="181" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1601,6 +1602,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1608,33 +1617,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1645,9 +1632,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1656,13 +1649,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1681,6 +1667,13 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1715,16 +1708,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1739,14 +1732,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1763,7 +1757,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1856,7 +1850,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1868,19 +1898,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1892,25 +1922,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1928,13 +1952,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1946,31 +1970,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1982,61 +2006,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2194,28 +2170,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2245,6 +2213,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2261,9 +2244,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2282,160 +2267,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2619,7 +2595,7 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2862,10 +2838,10 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3836,27 +3812,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr codeName="Sheet1"/>
+  <sheetPr filterMode="1" codeName="Sheet1"/>
   <dimension ref="A1:AA110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="J14" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T15" sqref="T15"/>
+      <selection pane="bottomRight" activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28703703703704" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.28703703703704" style="84"/>
-    <col min="2" max="2" width="14.712962962963" style="85" customWidth="1"/>
-    <col min="3" max="3" width="13.287037037037" style="86" customWidth="1"/>
-    <col min="4" max="4" width="34.5740740740741" style="86" customWidth="1"/>
-    <col min="5" max="6" width="24.4259259259259" style="86" customWidth="1"/>
+    <col min="1" max="1" width="9.28703703703704" style="84" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="2.11111111111111" style="85" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="0.138888888888889" style="86" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="13.8888888888889" style="86" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="0.222222222222222" style="86" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="24.4259259259259" style="86" customWidth="1"/>
     <col min="7" max="7" width="28.287037037037" style="86" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="24.4259259259259" style="87" customWidth="1"/>
-    <col min="9" max="9" width="23.8518518518519" style="87" customWidth="1"/>
+    <col min="8" max="8" width="0.222222222222222" style="87" customWidth="1"/>
+    <col min="9" max="9" width="0.333333333333333" style="87" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="17.712962962963" style="88" customWidth="1"/>
     <col min="11" max="11" width="22.287037037037" style="86" customWidth="1"/>
     <col min="12" max="12" width="17.712962962963" style="88" hidden="1" customWidth="1"/>
@@ -3876,7 +3853,7 @@
     <col min="27" max="16384" width="9.28703703703704" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" s="81" customFormat="1" ht="15.15" spans="1:26">
+    <row r="1" s="81" customFormat="1" ht="71" customHeight="1" spans="1:26">
       <c r="A1" s="90" t="s">
         <v>71</v>
       </c>
@@ -3956,7 +3933,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" ht="54" customHeight="1" spans="1:26">
+    <row r="2" ht="54" hidden="1" customHeight="1" spans="1:26">
       <c r="A2" s="95"/>
       <c r="B2" s="96" t="s">
         <v>97</v>
@@ -4005,7 +3982,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="3" ht="54" customHeight="1" spans="1:20">
+    <row r="3" ht="54" hidden="1" customHeight="1" spans="1:20">
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="104"/>
@@ -4031,7 +4008,7 @@
       <c r="S3" s="143"/>
       <c r="T3" s="143"/>
     </row>
-    <row r="4" ht="72.75" spans="1:26">
+    <row r="4" ht="58" customHeight="1" spans="1:26">
       <c r="A4" s="82"/>
       <c r="B4" s="109" t="s">
         <v>111</v>
@@ -4100,7 +4077,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" ht="58.35" spans="1:26">
+    <row r="5" ht="26" customHeight="1" spans="1:26">
       <c r="A5" s="82"/>
       <c r="B5" s="109" t="s">
         <v>122</v>
@@ -4151,7 +4128,7 @@
         <v>0.344</v>
       </c>
       <c r="T5" s="164">
-        <v>6.895</v>
+        <v>6.9</v>
       </c>
       <c r="U5" s="89" t="s">
         <v>121</v>
@@ -4170,7 +4147,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" ht="144.75" spans="1:26">
+    <row r="6" ht="141" hidden="1" customHeight="1" spans="1:26">
       <c r="A6" s="82"/>
       <c r="B6" s="109" t="s">
         <v>128</v>
@@ -4215,7 +4192,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" ht="28.8" spans="1:20">
+    <row r="7" ht="120" hidden="1" customHeight="1" spans="1:20">
       <c r="A7" s="82"/>
       <c r="B7" s="109" t="s">
         <v>136</v>
@@ -4251,7 +4228,7 @@
       <c r="S7" s="143"/>
       <c r="T7" s="143"/>
     </row>
-    <row r="8" s="82" customFormat="1" ht="72" spans="2:27">
+    <row r="8" s="82" customFormat="1" ht="222" hidden="1" customHeight="1" spans="2:27">
       <c r="B8" s="119" t="s">
         <v>142</v>
       </c>
@@ -4297,7 +4274,7 @@
       </c>
       <c r="AA8" s="171"/>
     </row>
-    <row r="9" s="83" customFormat="1" ht="31.15" customHeight="1" spans="1:26">
+    <row r="9" s="83" customFormat="1" ht="31.15" hidden="1" customHeight="1" spans="1:26">
       <c r="A9" s="95"/>
       <c r="B9" s="95" t="s">
         <v>150</v>
@@ -4349,7 +4326,7 @@
       <c r="Y9" s="89"/>
       <c r="Z9" s="82"/>
     </row>
-    <row r="10" s="83" customFormat="1" ht="35.45" customHeight="1" spans="1:26">
+    <row r="10" s="83" customFormat="1" ht="35.45" hidden="1" customHeight="1" spans="1:26">
       <c r="A10" s="102"/>
       <c r="B10" s="102"/>
       <c r="C10" s="116"/>
@@ -4381,7 +4358,7 @@
       <c r="Y10" s="89"/>
       <c r="Z10" s="82"/>
     </row>
-    <row r="11" ht="64.9" customHeight="1" spans="1:26">
+    <row r="11" ht="33" customHeight="1" spans="1:26">
       <c r="A11" s="82"/>
       <c r="B11" s="119" t="s">
         <v>155</v>
@@ -4446,7 +4423,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="12" ht="153.6" customHeight="1" spans="1:26">
+    <row r="12" ht="39" customHeight="1" spans="1:26">
       <c r="A12" s="82"/>
       <c r="B12" s="119" t="s">
         <v>159</v>
@@ -4518,7 +4495,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" ht="118.9" customHeight="1" spans="1:26">
+    <row r="13" ht="30" customHeight="1" spans="1:26">
       <c r="A13" s="82"/>
       <c r="B13" s="119" t="s">
         <v>175</v>
@@ -4592,7 +4569,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="14" ht="118.9" customHeight="1" spans="1:25">
+    <row r="14" ht="30" customHeight="1" spans="1:25">
       <c r="A14" s="82"/>
       <c r="B14" s="119" t="s">
         <v>190</v>
@@ -4655,7 +4632,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="15" ht="187.2" spans="1:26">
+    <row r="15" ht="43" customHeight="1" spans="1:26">
       <c r="A15" s="82"/>
       <c r="B15" s="119" t="s">
         <v>197</v>
@@ -4725,7 +4702,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" ht="273.6" hidden="1" spans="1:20">
       <c r="A16" s="82"/>
       <c r="B16" s="119" t="s">
         <v>203</v>
@@ -4757,7 +4734,7 @@
       <c r="S16" s="143"/>
       <c r="T16" s="143"/>
     </row>
-    <row r="17" ht="409.5" spans="1:26">
+    <row r="17" ht="409.5" hidden="1" spans="1:26">
       <c r="A17" s="82"/>
       <c r="B17" s="119" t="s">
         <v>204</v>
@@ -4827,7 +4804,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="18" ht="409.5" spans="1:26">
+    <row r="18" ht="409.5" hidden="1" spans="1:26">
       <c r="A18" s="82"/>
       <c r="B18" s="119" t="s">
         <v>211</v>
@@ -4884,7 +4861,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="19" ht="52.15" customHeight="1" spans="1:26">
+    <row r="19" ht="52.15" hidden="1" customHeight="1" spans="1:26">
       <c r="A19" s="82"/>
       <c r="B19" s="119" t="s">
         <v>219</v>
@@ -4923,7 +4900,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="20" ht="129.6" spans="1:26">
+    <row r="20" ht="409.5" hidden="1" spans="1:26">
       <c r="A20" s="82"/>
       <c r="B20" s="119" t="s">
         <v>223</v>
@@ -4993,7 +4970,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="21" ht="129.6" spans="1:26">
+    <row r="21" ht="409.5" hidden="1" spans="1:26">
       <c r="A21" s="82"/>
       <c r="B21" s="119" t="s">
         <v>229</v>
@@ -5050,7 +5027,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" ht="57.6" spans="1:20">
+    <row r="22" ht="409.5" hidden="1" spans="1:20">
       <c r="A22" s="82"/>
       <c r="B22" s="119" t="s">
         <v>235</v>
@@ -5088,7 +5065,7 @@
       <c r="S22" s="143"/>
       <c r="T22" s="143"/>
     </row>
-    <row r="23" ht="28.8" spans="1:20">
+    <row r="23" ht="316.8" hidden="1" spans="1:20">
       <c r="A23" s="82"/>
       <c r="B23" s="119" t="s">
         <v>239</v>
@@ -5124,7 +5101,7 @@
       <c r="S23" s="143"/>
       <c r="T23" s="143"/>
     </row>
-    <row r="24" ht="43.2" spans="1:20">
+    <row r="24" ht="331.2" hidden="1" spans="1:20">
       <c r="A24" s="82"/>
       <c r="B24" s="119" t="s">
         <v>242</v>
@@ -5160,7 +5137,7 @@
       <c r="S24" s="143"/>
       <c r="T24" s="143"/>
     </row>
-    <row r="25" ht="43.2" spans="1:20">
+    <row r="25" ht="331.2" hidden="1" spans="1:20">
       <c r="A25" s="82"/>
       <c r="B25" s="119" t="s">
         <v>247</v>
@@ -5196,7 +5173,7 @@
       <c r="S25" s="143"/>
       <c r="T25" s="143"/>
     </row>
-    <row r="26" ht="100.8" spans="1:26">
+    <row r="26" ht="409.5" hidden="1" spans="1:26">
       <c r="A26" s="82"/>
       <c r="B26" s="119" t="s">
         <v>251</v>
@@ -5235,7 +5212,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" ht="57.6" spans="1:26">
+    <row r="27" ht="409.5" hidden="1" spans="1:26">
       <c r="A27" s="82"/>
       <c r="B27" s="119" t="s">
         <v>255</v>
@@ -5305,7 +5282,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" hidden="1" spans="1:25">
       <c r="A28" s="82"/>
       <c r="B28" s="119" t="s">
         <v>261</v>
@@ -5366,7 +5343,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="29" ht="100.8" spans="1:20">
+    <row r="29" ht="409.5" hidden="1" spans="1:20">
       <c r="A29" s="95"/>
       <c r="B29" s="95" t="s">
         <v>265</v>
@@ -5410,7 +5387,7 @@
       <c r="S29" s="156"/>
       <c r="T29" s="156"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" hidden="1" spans="1:20">
       <c r="A30" s="102"/>
       <c r="B30" s="102"/>
       <c r="C30" s="125"/>
@@ -5436,7 +5413,7 @@
       <c r="S30" s="156"/>
       <c r="T30" s="156"/>
     </row>
-    <row r="31" ht="43.2" spans="1:20">
+    <row r="31" ht="409.5" hidden="1" spans="1:20">
       <c r="A31" s="82"/>
       <c r="B31" s="119" t="s">
         <v>275</v>
@@ -5476,7 +5453,7 @@
       <c r="S31" s="156"/>
       <c r="T31" s="156"/>
     </row>
-    <row r="32" ht="86.4" spans="1:25">
+    <row r="32" ht="409.5" hidden="1" spans="1:25">
       <c r="A32" s="82"/>
       <c r="B32" s="119" t="s">
         <v>281</v>
@@ -5540,7 +5517,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="33" ht="28.8" spans="1:20">
+    <row r="33" ht="172.8" hidden="1" spans="1:20">
       <c r="A33" s="82"/>
       <c r="B33" s="129" t="s">
         <v>284</v>
@@ -5570,7 +5547,7 @@
       <c r="S33" s="156"/>
       <c r="T33" s="156"/>
     </row>
-    <row r="34" ht="43.2" spans="1:20">
+    <row r="34" ht="331.2" hidden="1" spans="1:20">
       <c r="A34" s="82"/>
       <c r="B34" s="129" t="s">
         <v>286</v>
@@ -5600,7 +5577,7 @@
       <c r="S34" s="156"/>
       <c r="T34" s="156"/>
     </row>
-    <row r="35" ht="43.2" spans="1:20">
+    <row r="35" ht="409.5" spans="1:20">
       <c r="A35" s="82"/>
       <c r="B35" s="119" t="s">
         <v>287</v>
@@ -5634,7 +5611,7 @@
       <c r="S35" s="156"/>
       <c r="T35" s="156"/>
     </row>
-    <row r="36" ht="86.4" spans="1:20">
+    <row r="36" ht="409.5" hidden="1" spans="1:20">
       <c r="A36" s="82"/>
       <c r="B36" s="119" t="s">
         <v>290</v>
@@ -6325,6 +6302,20 @@
       <c r="G110" s="137"/>
     </row>
   </sheetData>
+  <autoFilter ref="B1:Z36">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Set Point"/>
+        <filter val="High  Pressure Alert Threshold"/>
+        <filter val="Maximum Pressure Alert"/>
+        <filter val="Mimimum Pressure Alert"/>
+        <filter val="Minimum Pressure Set Point Range"/>
+        <filter val="Maximum Pressure Set Point Range"/>
+        <filter val="Low Pressure Alert Threshold&#10;"/>
+      </filters>
+    </filterColumn>
+    <extLst/>
+  </autoFilter>
   <mergeCells count="27">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A9:A10"/>
